--- a/action/option3/pouet.xlsx
+++ b/action/option3/pouet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t xml:space="preserve">Identifiant</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">belje</t>
   </si>
   <si>
-    <t xml:space="preserve">pa$$0rd!</t>
+    <t xml:space="preserve">pa$$0rd!A</t>
   </si>
   <si>
     <t xml:space="preserve">pepal</t>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">admin</t>
   </si>
   <si>
+    <t xml:space="preserve">@D1</t>
+  </si>
+  <si>
     <t xml:space="preserve">spotify</t>
   </si>
   <si>
@@ -68,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nessus</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -284,7 +293,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -338,26 +347,37 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
